--- a/116Docs/JobStatsSprint1BurnupChart.xlsx
+++ b/116Docs/JobStatsSprint1BurnupChart.xlsx
@@ -175,7 +175,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -195,16 +195,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$15</c:f>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1583259605"/>
-        <c:axId val="1181943115"/>
+        <c:axId val="792527779"/>
+        <c:axId val="1675943313"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1583259605"/>
+        <c:axId val="792527779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -236,10 +236,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1181943115"/>
+        <c:crossAx val="1675943313"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1181943115"/>
+        <c:axId val="1675943313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,7 +287,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583259605"/>
+        <c:crossAx val="792527779"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
